--- a/VersionRecords/Version 5.1.5 20161208/版本Bug和特性计划及评审表v5.1.5.xlsx
+++ b/VersionRecords/Version 5.1.5 20161208/版本Bug和特性计划及评审表v5.1.5.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.1.5 20161208\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.1.5 20161208/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.5 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="BS权限配置" sheetId="3" r:id="rId2"/>
     <sheet name="数据修复" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -345,6 +350,33 @@
   </si>
   <si>
     <t>【房态图】房态图文案调整</t>
+  </si>
+  <si>
+    <t>partner、partnerpc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <rPh sb="0" eb="1">
+      <t>yu'xing'zan</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组安全性一期</t>
+    <rPh sb="0" eb="1">
+      <t>jie'bao'zu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>an'quan'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi'qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qi</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -465,18 +497,19 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="5">
@@ -515,40 +548,40 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -600,13 +633,13 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -632,7 +665,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,18 +759,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -767,6 +788,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1121,42 +1157,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V169"/>
+  <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="42.125" style="15" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" style="15" customWidth="1"/>
     <col min="5" max="5" width="15" style="14" customWidth="1"/>
     <col min="6" max="6" width="25" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="14" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="20.125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="14" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.125" style="15" customWidth="1"/>
-    <col min="16" max="16" width="14.375" style="15" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="14" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="15" customWidth="1"/>
+    <col min="17" max="17" width="5.1640625" style="15" customWidth="1"/>
     <col min="18" max="18" width="12" style="17" customWidth="1"/>
     <col min="19" max="19" width="17" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" customWidth="1"/>
     <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1313,7 @@
       <c r="U2" s="13"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1334,548 +1370,579 @@
       <c r="T3" s="7"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:22" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="34">
         <v>42709</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="34">
         <v>42709</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="39" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="38">
+      <c r="P4" s="34">
         <v>42710</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q4" s="35" t="s">
         <v>64</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="41"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="37"/>
       <c r="V4" s="8"/>
     </row>
-    <row r="5" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="34">
         <v>42709</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="34">
         <v>42709</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37" t="s">
+      <c r="K5" s="33"/>
+      <c r="L5" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="38">
+      <c r="P5" s="34">
         <v>42710</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="35" t="s">
         <v>64</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="42"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="38"/>
       <c r="V5" s="8"/>
     </row>
-    <row r="6" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="35" t="s">
+    <row r="6" spans="1:22" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="37" t="s">
+      <c r="D6" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="37" t="s">
+      <c r="F6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="38">
-        <v>42711</v>
-      </c>
-      <c r="I6" s="37" t="s">
+      <c r="H6" s="11">
+        <v>42709</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="38">
-        <v>42711</v>
-      </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="39"/>
+      <c r="J6" s="11">
+        <v>42709</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="11">
+        <v>42710</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="41"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="38"/>
       <c r="V6" s="8"/>
     </row>
-    <row r="7" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="37" t="s">
+      <c r="C7" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="37" t="s">
+      <c r="F7" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="34">
         <v>42711</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="34">
         <v>42711</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="37" t="s">
+      <c r="K7" s="33"/>
+      <c r="L7" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" s="38">
-        <v>42711</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>64</v>
-      </c>
+      <c r="N7" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="35"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="42"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="37"/>
       <c r="V7" s="8"/>
     </row>
-    <row r="8" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="37" t="s">
+      <c r="C8" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="37" t="s">
+      <c r="F8" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="34">
         <v>42711</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="34">
         <v>42711</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="37" t="s">
+      <c r="K8" s="33"/>
+      <c r="L8" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
+      <c r="N8" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="34">
+        <v>42711</v>
+      </c>
+      <c r="Q8" s="35" t="s">
+        <v>64</v>
+      </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="41"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="38"/>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" spans="1:22" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
-        <v>8</v>
-      </c>
-      <c r="B9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="37" t="s">
+      <c r="C9" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="34">
         <v>42711</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="34">
         <v>42711</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="37" t="s">
+      <c r="K9" s="33"/>
+      <c r="L9" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="35"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="42"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="37"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="1:22" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
-        <v>9</v>
-      </c>
-      <c r="B10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="37" t="s">
+      <c r="D10" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="34">
         <v>42711</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="34">
         <v>42711</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="39" t="s">
+      <c r="K10" s="33"/>
+      <c r="L10" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="N10" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="35"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="42"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="38"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="37" t="s">
+      <c r="D11" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="34">
         <v>42711</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="34">
         <v>42711</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="39" t="s">
+      <c r="K11" s="33"/>
+      <c r="L11" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="37" t="s">
+      <c r="N11" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="35"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="42"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="38"/>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" spans="1:22" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
-        <v>11</v>
-      </c>
-      <c r="B12" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="37" t="s">
+      <c r="D12" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="34">
         <v>42711</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="34">
         <v>42711</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="39" t="s">
+      <c r="K12" s="33"/>
+      <c r="L12" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="N12" s="37" t="s">
+      <c r="N12" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="35"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="42"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="38"/>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="34">
+        <v>42711</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="34">
+        <v>42711</v>
+      </c>
+      <c r="K13" s="33"/>
+      <c r="L13" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="35"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="1:22" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B14" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C14" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D14" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E14" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F14" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G14" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H14" s="34">
         <v>42711</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I14" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J14" s="34">
         <v>42711</v>
       </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="39" t="s">
+      <c r="K14" s="33"/>
+      <c r="L14" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="M14" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="N14" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="8"/>
-    </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="O14" s="35"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1898,7 +1965,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1921,7 +1988,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1944,7 +2011,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1967,7 +2034,7 @@
       <c r="T18" s="7"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1990,7 +2057,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2013,7 +2080,7 @@
       <c r="T20" s="7"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2036,7 +2103,7 @@
       <c r="T21" s="7"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2059,7 +2126,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2082,7 +2149,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2105,7 +2172,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2128,7 +2195,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2138,7 +2205,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="5"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="5"/>
+      <c r="J26" s="11"/>
       <c r="K26" s="6"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
@@ -2151,7 +2218,7 @@
       <c r="T26" s="7"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2174,7 +2241,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2197,7 +2264,7 @@
       <c r="T28" s="7"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2220,7 +2287,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2243,7 +2310,7 @@
       <c r="T30" s="7"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2266,7 +2333,7 @@
       <c r="T31" s="7"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2289,7 +2356,7 @@
       <c r="T32" s="7"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2312,7 +2379,7 @@
       <c r="T33" s="7"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2335,7 +2402,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2358,7 +2425,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2381,7 +2448,7 @@
       <c r="T36" s="7"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2404,7 +2471,7 @@
       <c r="T37" s="7"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2427,7 +2494,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2450,7 +2517,7 @@
       <c r="T39" s="7"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2473,7 +2540,7 @@
       <c r="T40" s="7"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2496,7 +2563,7 @@
       <c r="T41" s="7"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2519,7 +2586,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2542,7 +2609,7 @@
       <c r="T43" s="7"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2565,7 +2632,7 @@
       <c r="T44" s="7"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2588,7 +2655,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2611,7 +2678,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2634,7 +2701,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2657,7 +2724,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2680,7 +2747,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2703,7 +2770,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2726,7 +2793,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2749,7 +2816,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2772,7 +2839,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2795,7 +2862,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2818,7 +2885,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2841,7 +2908,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2864,7 +2931,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2887,7 +2954,7 @@
       <c r="T58" s="7"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2910,7 +2977,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2933,7 +3000,7 @@
       <c r="T60" s="7"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2956,7 +3023,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2979,7 +3046,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -3002,7 +3069,7 @@
       <c r="T63" s="7"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -3025,7 +3092,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -3048,7 +3115,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -3071,7 +3138,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3094,7 +3161,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3117,7 +3184,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3140,7 +3207,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3163,7 +3230,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3186,7 +3253,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3209,7 +3276,7 @@
       <c r="T72" s="7"/>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3232,7 +3299,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3255,7 +3322,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="4"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3278,7 +3345,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3301,7 +3368,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3324,7 +3391,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3347,7 +3414,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3370,7 +3437,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3393,7 +3460,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3416,7 +3483,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3439,7 +3506,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3462,7 +3529,7 @@
       <c r="T83" s="7"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3485,7 +3552,7 @@
       <c r="T84" s="7"/>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3508,7 +3575,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3531,7 +3598,7 @@
       <c r="T86" s="7"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3554,7 +3621,7 @@
       <c r="T87" s="7"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3577,7 +3644,7 @@
       <c r="T88" s="7"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3600,7 +3667,7 @@
       <c r="T89" s="7"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3623,7 +3690,7 @@
       <c r="T90" s="7"/>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3646,7 +3713,7 @@
       <c r="T91" s="7"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3669,7 +3736,7 @@
       <c r="T92" s="7"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3692,7 +3759,7 @@
       <c r="T93" s="7"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3715,7 +3782,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3738,7 +3805,7 @@
       <c r="T95" s="7"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3761,7 +3828,7 @@
       <c r="T96" s="7"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3784,7 +3851,7 @@
       <c r="T97" s="7"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3807,7 +3874,7 @@
       <c r="T98" s="7"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3830,7 +3897,7 @@
       <c r="T99" s="7"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3853,7 +3920,7 @@
       <c r="T100" s="7"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3876,7 +3943,7 @@
       <c r="T101" s="7"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3899,7 +3966,7 @@
       <c r="T102" s="7"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3917,9 +3984,12 @@
       <c r="O103" s="7"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="4"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3939,7 +4009,7 @@
       <c r="Q104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3959,7 +4029,7 @@
       <c r="Q105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3979,7 +4049,7 @@
       <c r="Q106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3999,7 +4069,7 @@
       <c r="Q107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -4019,7 +4089,7 @@
       <c r="Q108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -4039,7 +4109,7 @@
       <c r="Q109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -4059,7 +4129,7 @@
       <c r="Q110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -4079,7 +4149,7 @@
       <c r="Q111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -4099,7 +4169,7 @@
       <c r="Q112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -4119,7 +4189,7 @@
       <c r="Q113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -4139,7 +4209,7 @@
       <c r="Q114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -4159,7 +4229,7 @@
       <c r="Q115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -4179,7 +4249,7 @@
       <c r="Q116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -4199,7 +4269,7 @@
       <c r="Q117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -4219,7 +4289,7 @@
       <c r="Q118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -4239,7 +4309,7 @@
       <c r="Q119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -4259,7 +4329,7 @@
       <c r="Q120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -4279,7 +4349,7 @@
       <c r="Q121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -4299,7 +4369,7 @@
       <c r="Q122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -4319,7 +4389,7 @@
       <c r="Q123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -4339,7 +4409,7 @@
       <c r="Q124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -4359,7 +4429,7 @@
       <c r="Q125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -4379,7 +4449,7 @@
       <c r="Q126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4399,7 +4469,7 @@
       <c r="Q127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4419,7 +4489,7 @@
       <c r="Q128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -4439,7 +4509,7 @@
       <c r="Q129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -4459,7 +4529,7 @@
       <c r="Q130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -4479,13 +4549,13 @@
       <c r="Q131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
       <c r="D132" s="4"/>
       <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
+      <c r="F132" s="10"/>
       <c r="G132" s="10"/>
       <c r="H132" s="5"/>
       <c r="I132" s="7"/>
@@ -4499,7 +4569,7 @@
       <c r="Q132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4519,7 +4589,7 @@
       <c r="Q133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4531,22 +4601,22 @@
       <c r="I134" s="7"/>
       <c r="J134" s="5"/>
       <c r="K134" s="6"/>
-      <c r="L134" s="7"/>
-      <c r="M134" s="7"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="12"/>
       <c r="N134" s="7"/>
       <c r="O134" s="7"/>
       <c r="P134" s="5"/>
       <c r="Q134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
       <c r="D135" s="4"/>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
+      <c r="G135" s="10"/>
       <c r="H135" s="5"/>
       <c r="I135" s="7"/>
       <c r="J135" s="5"/>
@@ -4600,8 +4670,24 @@
       <c r="U137" s="4"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="7"/>
+      <c r="O138" s="7"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="4"/>
+      <c r="U138" s="4"/>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B139" s="7"/>
@@ -4727,28 +4813,32 @@
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
     </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q14">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C14">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B14">
       <formula1>"重要,不重要"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E14">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5 M4:M13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M14 L5:L6">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G13 T4:T13 I4:I13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T14 I4:I14 G4:G14">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O14">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4765,38 +4855,38 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4971,15 +5061,15 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.25" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">

--- a/VersionRecords/Version 5.1.5 20161208/版本Bug和特性计划及评审表v5.1.5.xlsx
+++ b/VersionRecords/Version 5.1.5 20161208/版本Bug和特性计划及评审表v5.1.5.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.1.5 20161208/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.1.5 20161208\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.5 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="BS权限配置" sheetId="3" r:id="rId2"/>
     <sheet name="数据修复" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
   <si>
     <t>No</t>
   </si>
@@ -378,12 +378,59 @@
     </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房态图】房源成功发起“装修中”后，房源状态自动变为隐藏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩淑芳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码拆分最新包结构（不需要测试）</t>
+  </si>
+  <si>
+    <t>所有</t>
+  </si>
+  <si>
+    <t>宋伟</t>
+  </si>
+  <si>
+    <t>架构组</t>
+  </si>
+  <si>
+    <t>自测</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -510,6 +557,23 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -645,7 +709,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -664,8 +728,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,12 +850,15 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,17 +871,45 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="8" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
     <cellStyle name="常规 3 12" xfId="5"/>
     <cellStyle name="常规 4" xfId="7"/>
     <cellStyle name="常规 6" xfId="2"/>
+    <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="常规 9" xfId="4"/>
     <cellStyle name="甘特图" xfId="3"/>
   </cellStyles>
@@ -1163,36 +1261,36 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" style="15" customWidth="1"/>
+    <col min="2" max="3" width="9.875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="42.125" style="15" customWidth="1"/>
     <col min="5" max="5" width="15" style="14" customWidth="1"/>
     <col min="6" max="6" width="25" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="14" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" style="15" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="5.1640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="14" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.125" style="15" customWidth="1"/>
+    <col min="16" max="16" width="14.375" style="15" customWidth="1"/>
+    <col min="17" max="17" width="5.125" style="15" customWidth="1"/>
     <col min="18" max="18" width="12" style="17" customWidth="1"/>
     <col min="19" max="19" width="17" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" customWidth="1"/>
+    <col min="20" max="20" width="14.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.875" customWidth="1"/>
     <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1411,7 @@
       <c r="U2" s="13"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1370,7 +1468,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:22" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1426,7 +1524,7 @@
       <c r="U4" s="37"/>
       <c r="V4" s="8"/>
     </row>
-    <row r="5" spans="1:22" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1482,15 +1580,17 @@
       <c r="U5" s="38"/>
       <c r="V5" s="8"/>
     </row>
-    <row r="6" spans="1:22" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
       <c r="B6" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="40" t="s">
         <v>88</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -1536,459 +1636,567 @@
       <c r="U6" s="38"/>
       <c r="V6" s="8"/>
     </row>
-    <row r="7" spans="1:22" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="11">
         <v>42711</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="11">
         <v>42711</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="35" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="35"/>
+      <c r="O7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="11">
+        <v>42711</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="36"/>
-      <c r="U7" s="37"/>
+      <c r="U7" s="41"/>
       <c r="V7" s="8"/>
     </row>
-    <row r="8" spans="1:22" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
-        <v>6</v>
-      </c>
-      <c r="B8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="11">
         <v>42711</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="11">
         <v>42711</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="35" t="s">
+      <c r="K8" s="10"/>
+      <c r="L8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="33" t="s">
+      <c r="M8" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="N8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="11">
         <v>42711</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="Q8" s="12" t="s">
         <v>64</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="36"/>
-      <c r="U8" s="38"/>
+      <c r="U8" s="13"/>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" spans="1:22" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
-        <v>7</v>
-      </c>
-      <c r="B9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="11">
         <v>42711</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="11">
         <v>42711</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="35" t="s">
+      <c r="K9" s="10"/>
+      <c r="L9" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="33" t="s">
+      <c r="N9" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="35"/>
+      <c r="O9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="11">
+        <v>42711</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="36"/>
-      <c r="U9" s="37"/>
+      <c r="U9" s="41"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="1:22" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
-        <v>8</v>
-      </c>
-      <c r="B10" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="11">
         <v>42711</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="11">
         <v>42711</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="35" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="33" t="s">
+      <c r="M10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="33" t="s">
+      <c r="N10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="35"/>
+      <c r="O10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="11">
+        <v>42711</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="36"/>
-      <c r="U10" s="38"/>
+      <c r="U10" s="13"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:22" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
-        <v>9</v>
-      </c>
-      <c r="B11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="11">
         <v>42711</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="11">
         <v>42711</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="35" t="s">
+      <c r="K11" s="10"/>
+      <c r="L11" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="33" t="s">
+      <c r="N11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="35"/>
+      <c r="O11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="11">
+        <v>42711</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="36"/>
-      <c r="U11" s="38"/>
+      <c r="U11" s="13"/>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" spans="1:22" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
-        <v>10</v>
-      </c>
-      <c r="B12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="11">
         <v>42711</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="11">
         <v>42711</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="35" t="s">
+      <c r="K12" s="10"/>
+      <c r="L12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M12" s="33" t="s">
+      <c r="M12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N12" s="33" t="s">
+      <c r="N12" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="35"/>
+      <c r="O12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="11">
+        <v>42711</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="36"/>
-      <c r="U12" s="38"/>
+      <c r="U12" s="13"/>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:22" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
-        <v>11</v>
-      </c>
-      <c r="B13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="11">
         <v>42711</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="11">
         <v>42711</v>
       </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="35" t="s">
+      <c r="K13" s="10"/>
+      <c r="L13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="33" t="s">
+      <c r="M13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="33" t="s">
+      <c r="N13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="35"/>
+      <c r="O13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="11">
+        <v>42711</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="36"/>
-      <c r="U13" s="38"/>
+      <c r="U13" s="13"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:22" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
-        <v>12</v>
-      </c>
-      <c r="B14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="11">
         <v>42711</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="11">
         <v>42711</v>
       </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="35" t="s">
+      <c r="K14" s="10"/>
+      <c r="L14" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="33" t="s">
+      <c r="M14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N14" s="33" t="s">
+      <c r="N14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
+      <c r="O14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="11">
+        <v>42711</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
       <c r="T14" s="36"/>
-      <c r="U14" s="38"/>
+      <c r="U14" s="13"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="4"/>
+    <row r="15" spans="1:22" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="11">
+        <v>42712</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="11">
+        <v>42712</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="11">
+        <v>42711</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:22" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+      <c r="T15" s="36"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16" spans="1:22" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="46">
+        <v>1</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="49">
+        <v>42711</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="49">
+        <v>42711</v>
+      </c>
+      <c r="K16" s="48"/>
+      <c r="L16" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="49">
+        <v>42711</v>
+      </c>
+      <c r="Q16" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="54"/>
+    </row>
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2011,7 +2219,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2034,7 +2242,7 @@
       <c r="T18" s="7"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2057,7 +2265,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2080,7 +2288,7 @@
       <c r="T20" s="7"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2103,7 +2311,7 @@
       <c r="T21" s="7"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2126,7 +2334,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2149,7 +2357,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2172,7 +2380,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2195,7 +2403,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2218,7 +2426,7 @@
       <c r="T26" s="7"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2241,7 +2449,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2264,7 +2472,7 @@
       <c r="T28" s="7"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2287,7 +2495,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2310,7 +2518,7 @@
       <c r="T30" s="7"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2333,7 +2541,7 @@
       <c r="T31" s="7"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2356,7 +2564,7 @@
       <c r="T32" s="7"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2379,7 +2587,7 @@
       <c r="T33" s="7"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2402,7 +2610,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2425,7 +2633,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2448,7 +2656,7 @@
       <c r="T36" s="7"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2471,7 +2679,7 @@
       <c r="T37" s="7"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2494,7 +2702,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2517,7 +2725,7 @@
       <c r="T39" s="7"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2540,7 +2748,7 @@
       <c r="T40" s="7"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2563,7 +2771,7 @@
       <c r="T41" s="7"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2586,7 +2794,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2609,7 +2817,7 @@
       <c r="T43" s="7"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2632,7 +2840,7 @@
       <c r="T44" s="7"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2655,7 +2863,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2678,7 +2886,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2701,7 +2909,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2724,7 +2932,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2747,7 +2955,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2770,7 +2978,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2793,7 +3001,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2816,7 +3024,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2839,7 +3047,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2862,7 +3070,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2885,7 +3093,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2908,7 +3116,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2931,7 +3139,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2954,7 +3162,7 @@
       <c r="T58" s="7"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2977,7 +3185,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -3000,7 +3208,7 @@
       <c r="T60" s="7"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -3023,7 +3231,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -3046,7 +3254,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -3069,7 +3277,7 @@
       <c r="T63" s="7"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -3092,7 +3300,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -3115,7 +3323,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -3138,7 +3346,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3161,7 +3369,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3184,7 +3392,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3207,7 +3415,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3230,7 +3438,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3253,7 +3461,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3276,7 +3484,7 @@
       <c r="T72" s="7"/>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3299,7 +3507,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="74" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3322,7 +3530,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="4"/>
     </row>
-    <row r="75" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3345,7 +3553,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3368,7 +3576,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3391,7 +3599,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3414,7 +3622,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3437,7 +3645,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3460,7 +3668,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3483,7 +3691,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3506,7 +3714,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3529,7 +3737,7 @@
       <c r="T83" s="7"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3552,7 +3760,7 @@
       <c r="T84" s="7"/>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3575,7 +3783,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3598,7 +3806,7 @@
       <c r="T86" s="7"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3621,7 +3829,7 @@
       <c r="T87" s="7"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3644,7 +3852,7 @@
       <c r="T88" s="7"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3667,7 +3875,7 @@
       <c r="T89" s="7"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3690,7 +3898,7 @@
       <c r="T90" s="7"/>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3713,7 +3921,7 @@
       <c r="T91" s="7"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3736,7 +3944,7 @@
       <c r="T92" s="7"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3759,7 +3967,7 @@
       <c r="T93" s="7"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3782,7 +3990,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3805,7 +4013,7 @@
       <c r="T95" s="7"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3828,7 +4036,7 @@
       <c r="T96" s="7"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3851,7 +4059,7 @@
       <c r="T97" s="7"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3874,7 +4082,7 @@
       <c r="T98" s="7"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3897,7 +4105,7 @@
       <c r="T99" s="7"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3920,7 +4128,7 @@
       <c r="T100" s="7"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3943,7 +4151,7 @@
       <c r="T101" s="7"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3966,7 +4174,7 @@
       <c r="T102" s="7"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3989,7 +4197,7 @@
       <c r="T103" s="7"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -4009,7 +4217,7 @@
       <c r="Q104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -4029,7 +4237,7 @@
       <c r="Q105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -4049,7 +4257,7 @@
       <c r="Q106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -4069,7 +4277,7 @@
       <c r="Q107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -4089,7 +4297,7 @@
       <c r="Q108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -4109,7 +4317,7 @@
       <c r="Q109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -4129,7 +4337,7 @@
       <c r="Q110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -4149,7 +4357,7 @@
       <c r="Q111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -4169,7 +4377,7 @@
       <c r="Q112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -4189,7 +4397,7 @@
       <c r="Q113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -4209,7 +4417,7 @@
       <c r="Q114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -4229,7 +4437,7 @@
       <c r="Q115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -4249,7 +4457,7 @@
       <c r="Q116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -4269,7 +4477,7 @@
       <c r="Q117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -4289,7 +4497,7 @@
       <c r="Q118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -4309,7 +4517,7 @@
       <c r="Q119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -4329,7 +4537,7 @@
       <c r="Q120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -4349,7 +4557,7 @@
       <c r="Q121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -4369,7 +4577,7 @@
       <c r="Q122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -4389,7 +4597,7 @@
       <c r="Q123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -4409,7 +4617,7 @@
       <c r="Q124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -4429,7 +4637,7 @@
       <c r="Q125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -4449,7 +4657,7 @@
       <c r="Q126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4469,7 +4677,7 @@
       <c r="Q127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4489,7 +4697,7 @@
       <c r="Q128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -4509,7 +4717,7 @@
       <c r="Q129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -4529,7 +4737,7 @@
       <c r="Q130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -4549,7 +4757,7 @@
       <c r="Q131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -4569,7 +4777,7 @@
       <c r="Q132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4589,7 +4797,7 @@
       <c r="Q133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4609,7 +4817,7 @@
       <c r="Q134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21" ht="16" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4820,25 +5028,25 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q16">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C16">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B16">
       <formula1>"重要,不重要"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E16">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M14 L5:L6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L6 M4:M16">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4:T14 I4:I14 G4:G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I16 G4:G16 T4:T16">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:O16">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4855,38 +5063,38 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-    </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
+    </row>
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -5061,15 +5269,15 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
